--- a/uploads/LISTE_5.xlsx
+++ b/uploads/LISTE_5.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BBFILESERVER\Kent_Ortak\KOORDİNASYON BİRİMİ\10. MADDE\92-) 2861 2-3-24\2- Malik Listesi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BBFILESERVER\Kent_Ortak\KOORDİNASYON BİRİMİ\10. MADDE\91-) 2898 Ada\2- Malik Listesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12907E35-F36F-402B-A97A-51F254BB2324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A70962-2478-4EAF-A1F0-0D787F758836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BAĞLAR MAH." sheetId="9" r:id="rId1"/>
+    <sheet name="100 YIL MAH." sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>isim</t>
   </si>
@@ -57,55 +57,256 @@
     <t>kdsid</t>
   </si>
   <si>
-    <t>VASFİ ERCAN</t>
-  </si>
-  <si>
-    <t>İBRAHİM ERDEN</t>
-  </si>
-  <si>
-    <t>KAMİL KAYA</t>
-  </si>
-  <si>
-    <t>İSMAİL YAKIN</t>
-  </si>
-  <si>
-    <t>ÖNDER YAKIN</t>
-  </si>
-  <si>
-    <t>ERSİN YAKIN</t>
-  </si>
-  <si>
-    <t>SELMİN NAZLIGÜL</t>
-  </si>
-  <si>
-    <t>CAHİT YAKIN</t>
-  </si>
-  <si>
-    <t>SEVCAN DEVELİ</t>
-  </si>
-  <si>
-    <t>SELÇUK YAKIN</t>
-  </si>
-  <si>
-    <t>TEVHİT ÜNEŞ</t>
-  </si>
-  <si>
-    <t>0541 957 40 45</t>
-  </si>
-  <si>
-    <t>0535 329 37 62</t>
-  </si>
-  <si>
-    <t>0536 244 12 37</t>
-  </si>
-  <si>
-    <t>0554 732 17 17</t>
-  </si>
-  <si>
-    <t>0532 572 36 28</t>
-  </si>
-  <si>
-    <t>0532 456 94 88</t>
+    <t>MÜNÜRE DENER</t>
+  </si>
+  <si>
+    <t>AHMET DENER</t>
+  </si>
+  <si>
+    <t>SALİM KAYA</t>
+  </si>
+  <si>
+    <t>SATİYE YILDIRIM</t>
+  </si>
+  <si>
+    <t>SATILMIŞ DERE</t>
+  </si>
+  <si>
+    <t>GÜLLÜZAR ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>MEHMET ÖZTÜRK</t>
+  </si>
+  <si>
+    <t>ALİ KAYA</t>
+  </si>
+  <si>
+    <t>ÜNAL DEDE</t>
+  </si>
+  <si>
+    <t>MEHMET CURKUŞ</t>
+  </si>
+  <si>
+    <t>HÜSEYİN ÇETİN</t>
+  </si>
+  <si>
+    <t>YILMAZ KAYA</t>
+  </si>
+  <si>
+    <t>MUSTAFA KARATAŞ</t>
+  </si>
+  <si>
+    <t>ZELİHA GÜLER</t>
+  </si>
+  <si>
+    <t>KESKİN YAVUZ</t>
+  </si>
+  <si>
+    <t>ÜNAL KARAKAŞ</t>
+  </si>
+  <si>
+    <t>MAHİR KARAKAŞ</t>
+  </si>
+  <si>
+    <t>SALİHA KARAKAŞ</t>
+  </si>
+  <si>
+    <t>ŞÜKRİYE YILMAZ</t>
+  </si>
+  <si>
+    <t>AHMET TELLİ</t>
+  </si>
+  <si>
+    <t>VELİ TENGİRŞEK</t>
+  </si>
+  <si>
+    <t>MEHMET YAYLA</t>
+  </si>
+  <si>
+    <t>AHMET MENTEŞ</t>
+  </si>
+  <si>
+    <t>İBRAHİM KARACAM</t>
+  </si>
+  <si>
+    <t>AZMİ SEYHAN</t>
+  </si>
+  <si>
+    <t>HANİFE DEMİRTAŞ</t>
+  </si>
+  <si>
+    <t>ZÖHRE MUMCUK</t>
+  </si>
+  <si>
+    <t>OSMAN YILDIZ</t>
+  </si>
+  <si>
+    <t>MUHAMMET KARAÇAM</t>
+  </si>
+  <si>
+    <t>KADİR ÇAMPAŞALI</t>
+  </si>
+  <si>
+    <t>SİNOP DURAĞAN</t>
+  </si>
+  <si>
+    <t>ARİFE GÖKCE</t>
+  </si>
+  <si>
+    <t>FATMA GÖKCE</t>
+  </si>
+  <si>
+    <t>HÜLYA GÖKCE</t>
+  </si>
+  <si>
+    <t>AKIN GÖKCE</t>
+  </si>
+  <si>
+    <t>AŞKIN GÖKCE</t>
+  </si>
+  <si>
+    <t>ALİ GÖKSAL</t>
+  </si>
+  <si>
+    <t>ZELİHA MAVİŞ</t>
+  </si>
+  <si>
+    <t>ABDULLAH DEMİR</t>
+  </si>
+  <si>
+    <t>ŞÜKRİYE ÇALAR</t>
+  </si>
+  <si>
+    <t>İRFAN ÇALAR</t>
+  </si>
+  <si>
+    <t>MEHMET KARAKAYA</t>
+  </si>
+  <si>
+    <t>İSA ŞAHİN</t>
+  </si>
+  <si>
+    <t>SAADET KARAKAYA</t>
+  </si>
+  <si>
+    <t>MEHMET KORUCUOĞLU</t>
+  </si>
+  <si>
+    <t>ŞÜKRÜ BALCI</t>
+  </si>
+  <si>
+    <t>0538 837 96 51</t>
+  </si>
+  <si>
+    <t>0531 293 82 10</t>
+  </si>
+  <si>
+    <t>0532 162 64 37</t>
+  </si>
+  <si>
+    <t>0507 738 31 40</t>
+  </si>
+  <si>
+    <t>0507 967 81 50</t>
+  </si>
+  <si>
+    <t>0536 454 70 67</t>
+  </si>
+  <si>
+    <t>0535 610 45 28</t>
+  </si>
+  <si>
+    <t>0535 939 76 98</t>
+  </si>
+  <si>
+    <t>0536 668 31 45</t>
+  </si>
+  <si>
+    <t>0535 830 22 19</t>
+  </si>
+  <si>
+    <t>0530 930 58 89</t>
+  </si>
+  <si>
+    <t>0541 276 64 77</t>
+  </si>
+  <si>
+    <t>0554 837 45 02</t>
+  </si>
+  <si>
+    <t>0532 334 60 95</t>
+  </si>
+  <si>
+    <t>0506 060 54 90</t>
+  </si>
+  <si>
+    <t>0537 574 57 68</t>
+  </si>
+  <si>
+    <t>0530 968 29 01</t>
+  </si>
+  <si>
+    <t>0533 335 23 20</t>
+  </si>
+  <si>
+    <t>0535 571 92 49</t>
+  </si>
+  <si>
+    <t>0532 589 99 68</t>
+  </si>
+  <si>
+    <t>0535 608 16 18</t>
+  </si>
+  <si>
+    <t>0537 240 71 75</t>
+  </si>
+  <si>
+    <t>0535 347 89 13</t>
+  </si>
+  <si>
+    <t>0530 182 80 67</t>
+  </si>
+  <si>
+    <t>0546 882 71 57</t>
+  </si>
+  <si>
+    <t>0535 637 48 08</t>
+  </si>
+  <si>
+    <t>0531 830 56 90</t>
+  </si>
+  <si>
+    <t>0535 485 79 66</t>
+  </si>
+  <si>
+    <t>0532 704 96 55</t>
+  </si>
+  <si>
+    <t>0544 357 53 17</t>
+  </si>
+  <si>
+    <t>0537 668 66 22</t>
+  </si>
+  <si>
+    <t>0531 275 69 34</t>
+  </si>
+  <si>
+    <t>0545 557 43 19</t>
+  </si>
+  <si>
+    <t>0544 364 45 55</t>
+  </si>
+  <si>
+    <t>0543 874 76 59</t>
+  </si>
+  <si>
+    <t>0541 930 82 97</t>
+  </si>
+  <si>
+    <t>0536 818 77 00</t>
+  </si>
+  <si>
+    <t>0531 984 57 57</t>
   </si>
 </sst>
 </file>
@@ -495,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,56 +751,52 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4">
-        <v>10045658920</v>
+        <v>50692194792</v>
       </c>
       <c r="D2" s="7">
-        <v>315.45</v>
+        <v>2893.75</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="5">
-        <v>136</v>
+        <v>1010</v>
       </c>
       <c r="G2" s="5">
-        <v>34</v>
+        <v>505</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>32812766522</v>
+        <v>50698194574</v>
       </c>
       <c r="D3" s="7">
-        <v>315.45</v>
+        <v>2893.75</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5">
-        <v>136</v>
+        <v>1010</v>
       </c>
       <c r="G3" s="5">
-        <v>68</v>
+        <v>505</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -607,24 +804,24 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4">
-        <v>12047591212</v>
+        <v>28577040014</v>
       </c>
       <c r="D4" s="7">
-        <v>315.45</v>
+        <v>448.8</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="5">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="G4" s="5">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J4" s="6">
         <v>2</v>
@@ -635,27 +832,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4">
-        <v>38995037510</v>
+        <v>14323913770</v>
       </c>
       <c r="D5" s="7">
-        <v>590.9</v>
+        <v>448.8</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="5">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G5" s="5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,27 +860,27 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4">
-        <v>38917040192</v>
+        <v>18488376982</v>
       </c>
       <c r="D6" s="7">
-        <v>590.9</v>
+        <v>448.8</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="5">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G6" s="5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,27 +888,27 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4">
-        <v>38899040708</v>
+        <v>51814265642</v>
       </c>
       <c r="D7" s="7">
-        <v>590.9</v>
+        <v>448.8</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="5">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G7" s="5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J7" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,27 +916,27 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4">
-        <v>38884041208</v>
+        <v>48217912082</v>
       </c>
       <c r="D8" s="7">
-        <v>590.9</v>
+        <v>448.8</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="5">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G8" s="5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,27 +944,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4">
-        <v>38983037966</v>
+        <v>12035591668</v>
       </c>
       <c r="D9" s="7">
-        <v>590.9</v>
+        <v>448.8</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="5">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G9" s="5">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J9" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,27 +972,27 @@
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4">
-        <v>38863041946</v>
+        <v>47902102746</v>
       </c>
       <c r="D10" s="7">
-        <v>590.9</v>
+        <v>448.8</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="5">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G10" s="5">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J10" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -803,27 +1000,27 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4">
-        <v>38872041654</v>
+        <v>11240967190</v>
       </c>
       <c r="D11" s="7">
-        <v>590.9</v>
+        <v>448.8</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="5">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G11" s="5">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -831,33 +1028,1005 @@
         <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4">
-        <v>14330088850</v>
+        <v>12065939690</v>
       </c>
       <c r="D12" s="7">
-        <v>315.45</v>
+        <v>448.8</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="5">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="G12" s="5">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6">
-        <v>2861</v>
+        <v>2898</v>
       </c>
       <c r="J12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4">
+        <v>28496042724</v>
+      </c>
+      <c r="D13" s="7">
+        <v>448.8</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5">
+        <v>177</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4">
+        <v>50053792438</v>
+      </c>
+      <c r="D14" s="7">
+        <v>448.8</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5">
+        <v>177</v>
+      </c>
+      <c r="G14" s="5">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4">
+        <v>50890296458</v>
+      </c>
+      <c r="D15" s="7">
+        <v>448.8</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5">
+        <v>177</v>
+      </c>
+      <c r="G15" s="5">
         <v>24</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4">
+        <v>16880430202</v>
+      </c>
+      <c r="D16" s="7">
+        <v>499.89</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5">
+        <v>155</v>
+      </c>
+      <c r="G16" s="5">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>29863997104</v>
+      </c>
+      <c r="D17" s="7">
+        <v>499.89</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5">
+        <v>155</v>
+      </c>
+      <c r="G17" s="5">
+        <v>31</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4">
+        <v>29860997268</v>
+      </c>
+      <c r="D18" s="7">
+        <v>499.89</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5">
+        <v>155</v>
+      </c>
+      <c r="G18" s="5">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4">
+        <v>29845997788</v>
+      </c>
+      <c r="D19" s="7">
+        <v>499.89</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5">
+        <v>155</v>
+      </c>
+      <c r="G19" s="5">
+        <v>31</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4">
+        <v>27878063326</v>
+      </c>
+      <c r="D20" s="7">
+        <v>499.89</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5">
+        <v>155</v>
+      </c>
+      <c r="G20" s="5">
+        <v>31</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="4">
+        <v>54859164192</v>
+      </c>
+      <c r="D21" s="7">
+        <v>491.4</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5">
+        <v>152</v>
+      </c>
+      <c r="G21" s="5">
+        <v>152</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4">
+        <v>18116737970</v>
+      </c>
+      <c r="D22" s="7">
+        <v>495.34</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5">
+        <v>154</v>
+      </c>
+      <c r="G22" s="5">
+        <v>154</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7">
+        <v>686.98</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5">
+        <v>241</v>
+      </c>
+      <c r="G23" s="5">
+        <v>241</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J23" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
+        <v>41497958580</v>
+      </c>
+      <c r="D24" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G24" s="5">
+        <v>13</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J24" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="4">
+        <v>49738802944</v>
+      </c>
+      <c r="D25" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G25" s="5">
+        <v>13</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J25" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="4">
+        <v>37523148766</v>
+      </c>
+      <c r="D26" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G26" s="5">
+        <v>13</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="4">
+        <v>27779388214</v>
+      </c>
+      <c r="D27" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G27" s="5">
+        <v>19</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J27" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4">
+        <v>37672264928</v>
+      </c>
+      <c r="D28" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G28" s="5">
+        <v>21</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J28" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="4">
+        <v>45100490092</v>
+      </c>
+      <c r="D29" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G29" s="5">
+        <v>19</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4">
+        <v>49732803152</v>
+      </c>
+      <c r="D30" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G30" s="5">
+        <v>18</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J30" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="4">
+        <v>18794715338</v>
+      </c>
+      <c r="D31" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G31" s="5">
+        <v>47</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J31" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G32" s="5">
+        <v>18</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J32" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="4">
+        <v>38141189544</v>
+      </c>
+      <c r="D33" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G33" s="5">
+        <v>4</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J33" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="4">
+        <v>38072191876</v>
+      </c>
+      <c r="D34" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G34" s="5">
+        <v>3</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J34" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="4">
+        <v>38069191940</v>
+      </c>
+      <c r="D35" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J35" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4">
+        <v>38003194198</v>
+      </c>
+      <c r="D36" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J36" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="4">
+        <v>37970195214</v>
+      </c>
+      <c r="D37" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J37" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="4">
+        <v>15581734206</v>
+      </c>
+      <c r="D38" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G38" s="5">
+        <v>19</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J38" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="4">
+        <v>12749916818</v>
+      </c>
+      <c r="D39" s="7">
+        <v>726.91</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5">
+        <v>236.28</v>
+      </c>
+      <c r="G39" s="5">
+        <v>18</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J39" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="4">
+        <v>41659929342</v>
+      </c>
+      <c r="D40" s="7">
+        <v>530.95000000000005</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="5">
+        <v>168</v>
+      </c>
+      <c r="G40" s="5">
+        <v>168</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J40" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4">
+        <v>12419446416</v>
+      </c>
+      <c r="D41" s="7">
+        <v>522.35</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5">
+        <v>163</v>
+      </c>
+      <c r="G41" s="5">
+        <v>82</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J41" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="4">
+        <v>12422446342</v>
+      </c>
+      <c r="D42" s="7">
+        <v>522.35</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5">
+        <v>163</v>
+      </c>
+      <c r="G42" s="5">
+        <v>82</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J42" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="4">
+        <v>18056048686</v>
+      </c>
+      <c r="D43" s="7">
+        <v>530.95000000000005</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="5">
+        <v>165</v>
+      </c>
+      <c r="G43" s="5">
+        <v>35</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J43" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="4">
+        <v>34067040532</v>
+      </c>
+      <c r="D44" s="7">
+        <v>530.95000000000005</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="5">
+        <v>165</v>
+      </c>
+      <c r="G44" s="5">
+        <v>40</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J44" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="4">
+        <v>18014050010</v>
+      </c>
+      <c r="D45" s="7">
+        <v>530.95000000000005</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="5">
+        <v>165</v>
+      </c>
+      <c r="G45" s="5">
+        <v>40</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J45" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="4">
+        <v>25073039290</v>
+      </c>
+      <c r="D46" s="7">
+        <v>530.95000000000005</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="5">
+        <v>165</v>
+      </c>
+      <c r="G46" s="5">
+        <v>50</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J46" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="4">
+        <v>42742921540</v>
+      </c>
+      <c r="D47" s="7">
+        <v>458.24</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5">
+        <v>181</v>
+      </c>
+      <c r="G47" s="5">
+        <v>181</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6">
+        <v>2898</v>
+      </c>
+      <c r="J47" s="6">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate>
     <dataRefs count="1">
-      <dataRef ref="L2" sheet="BAĞLAR MAH."/>
+      <dataRef ref="L2" sheet="100 YIL MAH."/>
     </dataRefs>
   </dataConsolidate>
   <phoneticPr fontId="3" type="noConversion"/>
